--- a/AAII_Financials/Quarterly/DRTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRTS_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/DRTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
   <si>
     <t>DRTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,72 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -740,8 +758,23 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,8 +802,23 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,8 +846,23 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,37 +874,57 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H12" s="3">
+        <v>11400</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3000</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,37 +952,67 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>900</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +1040,23 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,37 +1065,57 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>500</v>
+        <v>8000</v>
       </c>
       <c r="E17" s="3">
-        <v>400</v>
+        <v>7400</v>
       </c>
       <c r="F17" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G17" s="3">
+        <v>8800</v>
+      </c>
+      <c r="H17" s="3">
+        <v>13800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -975,28 +1123,43 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-400</v>
+        <v>-7400</v>
       </c>
       <c r="F18" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,8 +1171,13 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1017,28 +1185,43 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>-2000</v>
+        <v>4700</v>
       </c>
       <c r="F20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K20" s="3">
         <v>8700</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1048,8 +1231,8 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+      <c r="F21" s="3">
+        <v>-1500</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1060,14 +1243,29 @@
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="J21" s="3">
+        <v>-6600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1095,37 +1293,67 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>200</v>
+        <v>-3400</v>
       </c>
       <c r="E23" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="F23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K23" s="3">
         <v>7600</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1153,8 +1381,23 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1425,111 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>200</v>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="F26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K26" s="3">
         <v>7600</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>200</v>
+      <c r="D27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="F27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K27" s="3">
         <v>7600</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1557,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1601,23 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1645,23 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,8 +1689,23 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1365,57 +1713,87 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>2000</v>
+        <v>-4700</v>
       </c>
       <c r="F32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>17000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>13500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-8700</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>200</v>
+      <c r="D33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E33" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="F33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K33" s="3">
         <v>7600</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1821,116 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>200</v>
+      <c r="D35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E35" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="F35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K35" s="3">
         <v>7600</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="H38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1942,13 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,66 +1960,101 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>700</v>
+        <v>5800</v>
       </c>
       <c r="E41" s="3">
-        <v>1100</v>
+        <v>5900</v>
       </c>
       <c r="F41" s="3">
+        <v>11600</v>
+      </c>
+      <c r="G41" s="3">
+        <v>98100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>23200</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>98700</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>101700</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>100500</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>8100</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>8100</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1619,8 +2082,23 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,124 +2126,199 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>1900</v>
       </c>
       <c r="E45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G45" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K45" s="3">
+        <v>300</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>800</v>
+        <v>106500</v>
       </c>
       <c r="E46" s="3">
-        <v>1300</v>
+        <v>111300</v>
       </c>
       <c r="F46" s="3">
+        <v>116000</v>
+      </c>
+      <c r="G46" s="3">
+        <v>111200</v>
+      </c>
+      <c r="H46" s="3">
+        <v>32600</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>275000</v>
       </c>
-      <c r="E47" s="3">
-        <v>275000</v>
-      </c>
-      <c r="F47" s="3">
-        <v>275000</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>7600</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>7700</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>7600</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>7500</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1793,8 +2346,23 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +2390,23 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,37 +2434,67 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,37 +2522,67 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>275800</v>
+        <v>120100</v>
       </c>
       <c r="E54" s="3">
-        <v>276300</v>
+        <v>119400</v>
       </c>
       <c r="F54" s="3">
+        <v>124000</v>
+      </c>
+      <c r="G54" s="3">
+        <v>119000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>42200</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K54" s="3">
         <v>276500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2594,13 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,37 +2612,57 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>6300</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>4400</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2008,80 +2676,125 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>400</v>
+        <v>4300</v>
       </c>
       <c r="E60" s="3">
-        <v>400</v>
+        <v>3400</v>
       </c>
       <c r="F60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G60" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2109,37 +2822,67 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24600</v>
+        <v>5600</v>
       </c>
       <c r="E62" s="3">
-        <v>25300</v>
+        <v>8800</v>
       </c>
       <c r="F62" s="3">
+        <v>12900</v>
+      </c>
+      <c r="G62" s="3">
+        <v>18800</v>
+      </c>
+      <c r="H62" s="3">
+        <v>18600</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K62" s="3">
         <v>23300</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2910,23 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2954,23 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,37 +2998,67 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25000</v>
+        <v>14500</v>
       </c>
       <c r="E66" s="3">
-        <v>25700</v>
+        <v>12100</v>
       </c>
       <c r="F66" s="3">
+        <v>15700</v>
+      </c>
+      <c r="G66" s="3">
+        <v>25100</v>
+      </c>
+      <c r="H66" s="3">
+        <v>23000</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K66" s="3">
         <v>23400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="L66" s="3">
         <v>100</v>
       </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +3070,13 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +3104,23 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +3148,23 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2343,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>54000</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2354,8 +3192,23 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,37 +3236,67 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-24200</v>
+        <v>-100</v>
       </c>
       <c r="E72" s="3">
+        <v>-83200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-80600</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-78600</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K72" s="3">
         <v>5000</v>
       </c>
-      <c r="F72" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +3324,23 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +3368,23 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,37 +3412,67 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>250800</v>
+      <c r="D76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E76" s="3">
-        <v>250600</v>
+        <v>107300</v>
       </c>
       <c r="F76" s="3">
+        <v>108300</v>
+      </c>
+      <c r="G76" s="3">
+        <v>94000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K76" s="3">
         <v>253000</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +3500,116 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="H80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>200</v>
+      <c r="D81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E81" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="F81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K81" s="3">
         <v>7600</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,37 +3621,57 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +3699,23 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +3743,23 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +3787,23 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +3831,23 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3875,67 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,37 +3947,57 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
+        <v>-700</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +4025,23 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,37 +4069,67 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F94" s="3">
+        <v>-92700</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-275000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +4141,13 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +4175,23 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +4219,23 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +4263,23 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,91 +4307,151 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F100" s="3">
+        <v>96800</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>276600</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-400</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-100</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F102" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="K102" s="3">
         <v>1200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3" t="s">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DRTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
   <si>
     <t>DRTS</t>
   </si>
@@ -1445,8 +1445,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-3400</v>
       </c>
       <c r="E26" s="3">
         <v>-2600</v>
@@ -1489,8 +1489,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-3400</v>
       </c>
       <c r="E27" s="3">
         <v>-2600</v>
@@ -1753,8 +1753,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-3400</v>
       </c>
       <c r="E33" s="3">
         <v>-2600</v>
@@ -1841,8 +1841,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-3400</v>
       </c>
       <c r="E35" s="3">
         <v>-2600</v>
@@ -2279,7 +2279,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7500</v>
+        <v>13300</v>
       </c>
       <c r="E48" s="3">
         <v>7600</v>
@@ -2711,25 +2711,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
@@ -2843,7 +2843,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5600</v>
+        <v>10200</v>
       </c>
       <c r="E62" s="3">
         <v>8800</v>
@@ -3257,7 +3257,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-100</v>
+        <v>-86600</v>
       </c>
       <c r="E72" s="3">
         <v>-83200</v>
@@ -3432,8 +3432,8 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>105700</v>
       </c>
       <c r="E76" s="3">
         <v>107300</v>
@@ -3569,8 +3569,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-3400</v>
       </c>
       <c r="E81" s="3">
         <v>-2600</v>
@@ -3957,26 +3957,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-400</v>
       </c>
       <c r="F91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>-1200</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/DRTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="92">
   <si>
     <t>DRTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,80 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -773,8 +781,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -817,8 +831,14 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,8 +881,14 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,38 +905,40 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>5400</v>
+        <v>12300</v>
       </c>
       <c r="E12" s="3">
-        <v>4800</v>
+        <v>6300</v>
       </c>
       <c r="F12" s="3">
         <v>5400</v>
       </c>
       <c r="G12" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I12" s="3">
         <v>5200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>11400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>3000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>3000</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -923,8 +951,14 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,8 +1001,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -994,14 +1034,14 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>900</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1011,8 +1051,14 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1055,8 +1101,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,52 +1122,60 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8000</v>
+        <v>16800</v>
       </c>
       <c r="E17" s="3">
-        <v>7400</v>
+        <v>8600</v>
       </c>
       <c r="F17" s="3">
         <v>8000</v>
       </c>
       <c r="G17" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H17" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I17" s="3">
         <v>8800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>13800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1123,43 +1183,49 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-7400</v>
+        <v>-8600</v>
       </c>
       <c r="F18" s="3">
         <v>-8000</v>
       </c>
       <c r="G18" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-8800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-13800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,8 +1242,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1185,43 +1253,49 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>500</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G20" s="3">
         <v>4700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>6000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-17000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-13500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-3500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>8700</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,8 +1305,8 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
-        <v>-1500</v>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1244,14 +1318,14 @@
         <v>3</v>
       </c>
       <c r="J21" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-6600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,8 +1338,14 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1308,52 +1388,64 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-25700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-27300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-7000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>7600</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1396,8 +1488,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,96 +1538,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-25700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-27300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-7000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>7600</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-25700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-27300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-7000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>7600</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1688,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1738,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1788,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,8 +1838,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1713,87 +1853,99 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="G32" s="3">
         <v>-4700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-6000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>17000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>13500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>3500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-8700</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-25700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-27300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-7000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>7600</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,101 +1988,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-25700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-27300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-7000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>7600</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2117,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,41 +2137,43 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>900</v>
+      </c>
+      <c r="F41" s="3">
         <v>5800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>5900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>11600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>98100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>23200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3">
         <v>1200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2009,37 +2183,43 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>92700</v>
+      </c>
+      <c r="E42" s="3">
+        <v>98800</v>
+      </c>
+      <c r="F42" s="3">
         <v>98700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>101700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>100500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>8100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>8100</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2053,8 +2233,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2097,8 +2283,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2141,96 +2333,114 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>4000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>5000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>96100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>101000</v>
+      </c>
+      <c r="F46" s="3">
         <v>106500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>111300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>116000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>111200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>32600</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
+      <c r="O46" s="3">
+        <v>0</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2256,14 +2466,14 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>275000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2273,37 +2483,43 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F48" s="3">
         <v>13300</v>
-      </c>
-      <c r="E48" s="3">
-        <v>7600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>7700</v>
       </c>
       <c r="G48" s="3">
         <v>7600</v>
       </c>
       <c r="H48" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I48" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J48" s="3">
         <v>7500</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2317,8 +2533,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2361,8 +2583,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2633,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,8 +2683,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2461,25 +2701,25 @@
         <v>400</v>
       </c>
       <c r="F52" s="3">
+        <v>400</v>
+      </c>
+      <c r="G52" s="3">
+        <v>400</v>
+      </c>
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2493,8 +2733,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,52 +2783,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>111200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>116100</v>
+      </c>
+      <c r="F54" s="3">
         <v>120100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>119400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>124000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>119000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>42200</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3">
         <v>276500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
+      <c r="O54" s="3">
+        <v>0</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2857,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,37 +2877,39 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F57" s="3">
         <v>3700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>6300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>4400</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -2661,8 +2923,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2691,34 +2959,40 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2731,70 +3005,82 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F60" s="3">
         <v>4300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>6300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4400</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
+      <c r="O60" s="3">
+        <v>0</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2837,41 +3123,47 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F62" s="3">
         <v>10200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>8800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>12900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>18800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>18600</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3">
         <v>23300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2881,8 +3173,14 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3223,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3273,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,52 +3323,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F66" s="3">
         <v>14500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>12100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>15700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>25100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>23000</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3">
         <v>23400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>100</v>
       </c>
-      <c r="M66" s="3">
-        <v>0</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
+      <c r="O66" s="3">
+        <v>0</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3397,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3443,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3493,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3181,14 +3517,14 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>54000</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3207,8 +3543,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,52 +3593,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-103500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-94800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-86600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-83200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-80600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-78600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-52800</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3">
         <v>5000</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3">
+        <v>0</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3693,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3743,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,52 +3793,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>92600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>99200</v>
+      </c>
+      <c r="F76" s="3">
         <v>105700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>107300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>108300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>94000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-34800</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3">
         <v>253000</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
+        <v>0</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,101 +3893,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-25700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-27300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-7000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>7600</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,19 +4022,21 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>500</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="3">
-        <v>500</v>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -3650,14 +4048,14 @@
         <v>3</v>
       </c>
       <c r="J83" s="3">
+        <v>800</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
         <v>400</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
@@ -3670,8 +4068,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +4118,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +4168,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4218,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4268,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,19 +4318,25 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>-9900</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F89" s="3">
-        <v>-15300</v>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -3914,28 +4348,34 @@
         <v>3</v>
       </c>
       <c r="J89" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3">
         <v>-5400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,26 +4392,28 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1700</v>
       </c>
-      <c r="H91" s="3">
-        <v>-600</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -3996,8 +4438,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4488,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,19 +4538,25 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>5000</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="3">
-        <v>-92700</v>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -4108,17 +4568,17 @@
         <v>3</v>
       </c>
       <c r="J94" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
         <v>1300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-275000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4128,8 +4588,14 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4612,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4658,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4708,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4758,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,19 +4808,25 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
-        <v>96800</v>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -4346,17 +4838,17 @@
         <v>3</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>276600</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4366,19 +4858,25 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>-100</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F101" s="3">
-        <v>-300</v>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -4390,14 +4888,14 @@
         <v>3</v>
       </c>
       <c r="J101" s="3">
+        <v>100</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -4410,8 +4908,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4421,8 +4925,8 @@
       <c r="E102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F102" s="3">
-        <v>-11500</v>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
@@ -4434,24 +4938,30 @@
         <v>3</v>
       </c>
       <c r="J102" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
         <v>-4500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DRTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRTS_QTR_FIN.xlsx
@@ -913,7 +913,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>12300</v>
+        <v>6000</v>
       </c>
       <c r="E12" s="3">
         <v>6300</v>
@@ -1130,7 +1130,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16800</v>
+        <v>8200</v>
       </c>
       <c r="E17" s="3">
         <v>8600</v>
@@ -1400,7 +1400,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-16800</v>
+        <v>-8700</v>
       </c>
       <c r="E23" s="3">
         <v>-8200</v>
@@ -1549,8 +1549,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-8700</v>
       </c>
       <c r="E26" s="3">
         <v>-8200</v>
@@ -1599,8 +1599,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-8700</v>
       </c>
       <c r="E27" s="3">
         <v>-8200</v>
@@ -1899,8 +1899,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-8700</v>
       </c>
       <c r="E33" s="3">
         <v>-8200</v>
@@ -1999,8 +1999,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-8700</v>
       </c>
       <c r="E35" s="3">
         <v>-8200</v>
@@ -3959,8 +3959,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-8700</v>
       </c>
       <c r="E81" s="3">
         <v>-8200</v>
@@ -4029,8 +4029,8 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>500</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>3</v>
@@ -4329,8 +4329,8 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-9900</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>3</v>
@@ -4549,8 +4549,8 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>5000</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>3</v>
@@ -4819,8 +4819,8 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
@@ -4869,8 +4869,8 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-100</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>3</v>
